--- a/Exercicios/Automação web/Realizar login no CLAW/rr01br00049.xlsx
+++ b/Exercicios/Automação web/Realizar login no CLAW/rr01br00049.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f57aace54abe1a45/Python/Projetos/Automação web/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f57aace54abe1a45/Python/Exercicios/Automação web/Realizar login no CLAW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{39E166C9-4F85-4C17-8B9B-A2F235F5C89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{387EC59E-DBF3-4551-8A77-724405B11FD0}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{39E166C9-4F85-4C17-8B9B-A2F235F5C89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BB108F0-FC82-40EC-809F-9E7FE35E7F8E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7E2371F1-C613-4718-A68A-ACE4588095F2}"/>
+    <workbookView xWindow="5115" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{7E2371F1-C613-4718-A68A-ACE4588095F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,18 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>USUARIO</t>
   </si>
   <si>
     <t>SENHA</t>
-  </si>
-  <si>
-    <t>BR00049COVRLS</t>
-  </si>
-  <si>
-    <t>Scania@2027</t>
   </si>
 </sst>
 </file>
@@ -422,7 +416,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,21 +434,13 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{9E81F498-DD71-4DFF-B5D2-433AE954A035}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Exercicios/Automação web/Realizar login no CLAW/rr01br00049.xlsx
+++ b/Exercicios/Automação web/Realizar login no CLAW/rr01br00049.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f57aace54abe1a45/Python/Exercicios/Automação web/Realizar login no CLAW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{39E166C9-4F85-4C17-8B9B-A2F235F5C89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BB108F0-FC82-40EC-809F-9E7FE35E7F8E}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{39E166C9-4F85-4C17-8B9B-A2F235F5C89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2862FA5E-8F31-4C77-A742-759299DCF275}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{7E2371F1-C613-4718-A68A-ACE4588095F2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7E2371F1-C613-4718-A68A-ACE4588095F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>USUARIO</t>
   </si>
   <si>
     <t>SENHA</t>
+  </si>
+  <si>
+    <t>BR00049COVRLS</t>
   </si>
 </sst>
 </file>
@@ -94,10 +97,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -416,28 +420,33 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>123456</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
+      <c r="B5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
